--- a/1. Project/DTNPL/KPLO-DTN Requrement Tracebility Matrix_200409A.xlsx
+++ b/1. Project/DTNPL/KPLO-DTN Requrement Tracebility Matrix_200409A.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\O18003\Work\Projects\71. KPLO DTN\Documents\문서 최신버전\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyDocuments\Dev Docu\1. Project\DTNPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="57975" yWindow="705" windowWidth="26610" windowHeight="13680" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Spec and Capability" sheetId="1" r:id="rId1"/>
@@ -1624,11 +1624,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Date: '20.05.xx~05.xx
-@Lumir</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Inrush Current 
 정상범위</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1687,6 +1682,11 @@
   </si>
   <si>
     <t>전원 커넥터 확인(HD15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date: '20.09.10~09.11
+@Lumir</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1694,7 +1694,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2609,6 +2609,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2630,6 +2648,111 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2648,51 +2771,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2702,66 +2780,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2771,26 +2789,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3082,7 +3082,7 @@
       <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.95"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" style="1" bestFit="1" customWidth="1"/>
@@ -3090,37 +3090,37 @@
     <col min="5" max="6" width="3" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="1" customWidth="1"/>
     <col min="8" max="9" width="3" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="42.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="32" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="1" spans="2:10" ht="34.5" thickBot="1">
       <c r="B1" s="49" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.95">
-      <c r="B2" s="69" t="s">
+    <row r="2" spans="2:10">
+      <c r="B2" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="68" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="73" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="79" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18" thickBot="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="B3" s="70"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
+    <row r="3" spans="2:10" ht="17.25" thickBot="1">
+      <c r="B3" s="76"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
       <c r="E3" s="55" t="s">
         <v>227</v>
       </c>
@@ -3136,9 +3136,9 @@
       <c r="I3" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="J3" s="74"/>
-    </row>
-    <row r="4" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+      <c r="J3" s="80"/>
+    </row>
+    <row r="4" spans="2:10" ht="33">
       <c r="B4" s="56" t="s">
         <v>3</v>
       </c>
@@ -3157,7 +3157,7 @@
       <c r="I4" s="53"/>
       <c r="J4" s="57"/>
     </row>
-    <row r="5" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="5" spans="2:10" ht="33">
       <c r="B5" s="58" t="s">
         <v>4</v>
       </c>
@@ -3176,7 +3176,7 @@
       <c r="I5" s="6"/>
       <c r="J5" s="59"/>
     </row>
-    <row r="6" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="6" spans="2:10" ht="33">
       <c r="B6" s="58" t="s">
         <v>5</v>
       </c>
@@ -3195,7 +3195,7 @@
       <c r="I6" s="6"/>
       <c r="J6" s="59"/>
     </row>
-    <row r="7" spans="2:10" ht="51.75" x14ac:dyDescent="0.95">
+    <row r="7" spans="2:10" ht="49.5">
       <c r="B7" s="58" t="s">
         <v>6</v>
       </c>
@@ -3214,7 +3214,7 @@
       <c r="I7" s="6"/>
       <c r="J7" s="60"/>
     </row>
-    <row r="8" spans="2:10" ht="51.75" x14ac:dyDescent="0.95">
+    <row r="8" spans="2:10" ht="49.5">
       <c r="B8" s="58" t="s">
         <v>7</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="I8" s="6"/>
       <c r="J8" s="59"/>
     </row>
-    <row r="9" spans="2:10" ht="86.25" x14ac:dyDescent="0.95">
+    <row r="9" spans="2:10" ht="82.5">
       <c r="B9" s="58" t="s">
         <v>8</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="69" x14ac:dyDescent="0.95">
+    <row r="10" spans="2:10" ht="66">
       <c r="B10" s="58" t="s">
         <v>9</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="I10" s="6"/>
       <c r="J10" s="59"/>
     </row>
-    <row r="11" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="11" spans="2:10" ht="33">
       <c r="B11" s="58" t="s">
         <v>10</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.95">
+    <row r="12" spans="2:10">
       <c r="B12" s="58" t="s">
         <v>11</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="13" spans="2:10" ht="33">
       <c r="B13" s="58" t="s">
         <v>12</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="51.75" x14ac:dyDescent="0.95">
+    <row r="14" spans="2:10" ht="49.5">
       <c r="B14" s="58" t="s">
         <v>13</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.95">
+    <row r="15" spans="2:10">
       <c r="B15" s="58" t="s">
         <v>14</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.95">
+    <row r="16" spans="2:10">
       <c r="B16" s="58" t="s">
         <v>15</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="17" spans="2:10" ht="33">
       <c r="B17" s="58" t="s">
         <v>16</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="18" spans="2:10" ht="33">
       <c r="B18" s="58" t="s">
         <v>17</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="19" spans="2:10" ht="33">
       <c r="B19" s="58" t="s">
         <v>18</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.95">
+    <row r="20" spans="2:10">
       <c r="B20" s="58" t="s">
         <v>19</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="21" spans="2:10" ht="33">
       <c r="B21" s="58" t="s">
         <v>20</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.95">
+    <row r="22" spans="2:10">
       <c r="B22" s="58" t="s">
         <v>21</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.95">
+    <row r="23" spans="2:10">
       <c r="B23" s="58" t="s">
         <v>22</v>
       </c>
@@ -3544,7 +3544,7 @@
       <c r="I23" s="6"/>
       <c r="J23" s="59"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.95">
+    <row r="24" spans="2:10">
       <c r="B24" s="58" t="s">
         <v>23</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="51.75" x14ac:dyDescent="0.95">
+    <row r="25" spans="2:10" ht="49.5">
       <c r="B25" s="58" t="s">
         <v>24</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="26" spans="2:10" ht="33">
       <c r="B26" s="58" t="s">
         <v>25</v>
       </c>
@@ -3605,7 +3605,7 @@
       <c r="I26" s="6"/>
       <c r="J26" s="59"/>
     </row>
-    <row r="27" spans="2:10" ht="51.75" x14ac:dyDescent="0.95">
+    <row r="27" spans="2:10" ht="49.5">
       <c r="B27" s="58" t="s">
         <v>26</v>
       </c>
@@ -3624,7 +3624,7 @@
       <c r="I27" s="6"/>
       <c r="J27" s="59"/>
     </row>
-    <row r="28" spans="2:10" ht="51.75" x14ac:dyDescent="0.95">
+    <row r="28" spans="2:10" ht="49.5">
       <c r="B28" s="58" t="s">
         <v>27</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="29" spans="2:10" ht="33">
       <c r="B29" s="58" t="s">
         <v>28</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="51.75" x14ac:dyDescent="0.95">
+    <row r="30" spans="2:10" ht="49.5">
       <c r="B30" s="58" t="s">
         <v>29</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="59"/>
     </row>
-    <row r="31" spans="2:10" ht="51.75" x14ac:dyDescent="0.95">
+    <row r="31" spans="2:10" ht="49.5">
       <c r="B31" s="58" t="s">
         <v>30</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="32" spans="2:10" ht="33">
       <c r="B32" s="58" t="s">
         <v>31</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="51.75" x14ac:dyDescent="0.95">
+    <row r="33" spans="2:10" ht="49.5">
       <c r="B33" s="58" t="s">
         <v>32</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="51.75" x14ac:dyDescent="0.95">
+    <row r="34" spans="2:10" ht="49.5">
       <c r="B34" s="58" t="s">
         <v>33</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="35" spans="2:10" ht="33">
       <c r="B35" s="58" t="s">
         <v>34</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="36" spans="2:10" ht="33">
       <c r="B36" s="58" t="s">
         <v>35</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="37" spans="2:10" ht="33">
       <c r="B37" s="58" t="s">
         <v>36</v>
       </c>
@@ -3830,7 +3830,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="59"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.95">
+    <row r="38" spans="2:10">
       <c r="B38" s="58" t="s">
         <v>98</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="59"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.95">
+    <row r="39" spans="2:10">
       <c r="B39" s="58" t="s">
         <v>99</v>
       </c>
@@ -3868,7 +3868,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="59"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.95">
+    <row r="40" spans="2:10">
       <c r="B40" s="58" t="s">
         <v>100</v>
       </c>
@@ -3887,7 +3887,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="59"/>
     </row>
-    <row r="41" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="41" spans="2:10" ht="33">
       <c r="B41" s="58" t="s">
         <v>101</v>
       </c>
@@ -3906,7 +3906,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="59"/>
     </row>
-    <row r="42" spans="2:10" ht="34.5" x14ac:dyDescent="0.95">
+    <row r="42" spans="2:10" ht="33">
       <c r="B42" s="58" t="s">
         <v>102</v>
       </c>
@@ -3925,7 +3925,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="59"/>
     </row>
-    <row r="43" spans="2:10" ht="35.25" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+    <row r="43" spans="2:10" ht="33.75" thickBot="1">
       <c r="B43" s="63" t="s">
         <v>103</v>
       </c>
@@ -3964,135 +3964,135 @@
   </sheetPr>
   <dimension ref="B2:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3:V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.95"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.75" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.4140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.4140625" style="44" customWidth="1"/>
-    <col min="7" max="7" width="7.9140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="31.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.45703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="2.95703125" customWidth="1"/>
+    <col min="9" max="9" width="29.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="3" customWidth="1"/>
     <col min="11" max="11" width="36" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
-    <col min="13" max="13" width="11.5390625" customWidth="1"/>
+    <col min="12" max="12" width="16.125" customWidth="1"/>
+    <col min="13" max="13" width="11.5" customWidth="1"/>
     <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
     <col min="18" max="18" width="10.625" customWidth="1"/>
-    <col min="20" max="20" width="12.95703125" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
     <col min="22" max="22" width="13.75" customWidth="1"/>
-    <col min="23" max="23" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" ht="31.25" x14ac:dyDescent="0.95">
+    <row r="2" spans="2:24" ht="33.75">
       <c r="B2" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="M2" s="126" t="s">
+      <c r="M2" s="84" t="s">
         <v>375</v>
       </c>
-      <c r="N2" s="126"/>
-      <c r="O2" s="126" t="s">
+      <c r="N2" s="84"/>
+      <c r="O2" s="84" t="s">
         <v>376</v>
       </c>
-      <c r="P2" s="126"/>
-      <c r="Q2" s="126" t="s">
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84" t="s">
         <v>377</v>
       </c>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126" t="s">
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84" t="s">
         <v>378</v>
       </c>
-      <c r="X2" s="126"/>
-    </row>
-    <row r="3" spans="2:24" ht="32" customHeight="1" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="X2" s="84"/>
+    </row>
+    <row r="3" spans="2:24" ht="32.1" customHeight="1" thickBot="1">
       <c r="B3" s="49"/>
-      <c r="M3" s="125" t="s">
+      <c r="M3" s="82" t="s">
         <v>370</v>
       </c>
-      <c r="N3" s="114"/>
-      <c r="O3" s="125" t="s">
+      <c r="N3" s="83"/>
+      <c r="O3" s="82" t="s">
         <v>372</v>
       </c>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="125" t="s">
+      <c r="P3" s="83"/>
+      <c r="Q3" s="82" t="s">
         <v>371</v>
       </c>
-      <c r="R3" s="114"/>
-      <c r="S3" s="125" t="s">
+      <c r="R3" s="83"/>
+      <c r="S3" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="T3" s="114"/>
-      <c r="U3" s="125" t="s">
+      <c r="T3" s="83"/>
+      <c r="U3" s="82" t="s">
         <v>374</v>
       </c>
-      <c r="V3" s="114"/>
-      <c r="W3" s="125" t="s">
-        <v>379</v>
-      </c>
-      <c r="X3" s="114"/>
-    </row>
-    <row r="4" spans="2:24" ht="18.5" x14ac:dyDescent="0.95">
-      <c r="B4" s="81" t="s">
+      <c r="V3" s="83"/>
+      <c r="W3" s="82" t="s">
+        <v>394</v>
+      </c>
+      <c r="X3" s="83"/>
+    </row>
+    <row r="4" spans="2:24" ht="17.25">
+      <c r="B4" s="111" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="83" t="s">
+      <c r="C4" s="112"/>
+      <c r="D4" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="90" t="s">
+      <c r="E4" s="114"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="K4" s="116" t="s">
+      <c r="I4" s="110"/>
+      <c r="K4" s="106" t="s">
         <v>334</v>
       </c>
-      <c r="L4" s="116" t="s">
+      <c r="L4" s="106" t="s">
         <v>335</v>
       </c>
-      <c r="M4" s="117" t="s">
+      <c r="M4" s="81" t="s">
         <v>336</v>
       </c>
-      <c r="N4" s="117"/>
-      <c r="O4" s="117" t="s">
+      <c r="N4" s="81"/>
+      <c r="O4" s="81" t="s">
         <v>336</v>
       </c>
-      <c r="P4" s="117"/>
-      <c r="Q4" s="117" t="s">
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81" t="s">
         <v>337</v>
       </c>
-      <c r="R4" s="117"/>
-      <c r="S4" s="117" t="s">
+      <c r="R4" s="81"/>
+      <c r="S4" s="81" t="s">
         <v>338</v>
       </c>
-      <c r="T4" s="117"/>
-      <c r="U4" s="117" t="s">
+      <c r="T4" s="81"/>
+      <c r="U4" s="81" t="s">
         <v>339</v>
       </c>
-      <c r="V4" s="117"/>
-      <c r="W4" s="117" t="s">
+      <c r="V4" s="81"/>
+      <c r="W4" s="81" t="s">
         <v>336</v>
       </c>
-      <c r="X4" s="117"/>
-    </row>
-    <row r="5" spans="2:24" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="X4" s="81"/>
+    </row>
+    <row r="5" spans="2:24" s="1" customFormat="1" ht="17.25" thickBot="1">
       <c r="B5" s="25" t="s">
         <v>110</v>
       </c>
@@ -4108,53 +4108,53 @@
       <c r="F5" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="108"/>
       <c r="H5" s="23" t="s">
         <v>114</v>
       </c>
       <c r="I5" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="K5" s="116"/>
-      <c r="L5" s="116"/>
-      <c r="M5" s="118" t="s">
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="N5" s="118" t="s">
+      <c r="N5" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="O5" s="118" t="s">
+      <c r="O5" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="P5" s="118" t="s">
+      <c r="P5" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="Q5" s="118" t="s">
+      <c r="Q5" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="R5" s="118" t="s">
+      <c r="R5" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="S5" s="118" t="s">
+      <c r="S5" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="T5" s="118" t="s">
+      <c r="T5" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="U5" s="118" t="s">
+      <c r="U5" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="V5" s="118" t="s">
+      <c r="V5" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="W5" s="118" t="s">
+      <c r="W5" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="X5" s="118" t="s">
+      <c r="X5" s="73" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.95">
+    <row r="6" spans="2:24" s="1" customFormat="1">
       <c r="B6" s="41" t="s">
         <v>289</v>
       </c>
@@ -4180,7 +4180,7 @@
       <c r="W6" s="33"/>
       <c r="X6" s="33"/>
     </row>
-    <row r="7" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
+    <row r="7" spans="2:24" ht="49.5">
       <c r="B7" s="22" t="s">
         <v>183</v>
       </c>
@@ -4205,22 +4205,22 @@
       <c r="I7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
-      <c r="U7" s="115"/>
-      <c r="V7" s="115"/>
-      <c r="W7" s="115"/>
-      <c r="X7" s="115"/>
-    </row>
-    <row r="8" spans="2:24" ht="69" x14ac:dyDescent="0.95">
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+    </row>
+    <row r="8" spans="2:24" ht="66">
       <c r="B8" s="22" t="s">
         <v>115</v>
       </c>
@@ -4245,22 +4245,22 @@
       <c r="I8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
-      <c r="U8" s="115"/>
-      <c r="V8" s="115"/>
-      <c r="W8" s="115"/>
-      <c r="X8" s="115"/>
-    </row>
-    <row r="9" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+    </row>
+    <row r="9" spans="2:24" ht="49.5">
       <c r="B9" s="22" t="s">
         <v>116</v>
       </c>
@@ -4285,22 +4285,22 @@
       <c r="I9" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
-      <c r="U9" s="115"/>
-      <c r="V9" s="115"/>
-      <c r="W9" s="115"/>
-      <c r="X9" s="115"/>
-    </row>
-    <row r="10" spans="2:24" ht="86.25" x14ac:dyDescent="0.95">
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+    </row>
+    <row r="10" spans="2:24" ht="82.5">
       <c r="B10" s="22" t="s">
         <v>117</v>
       </c>
@@ -4325,22 +4325,22 @@
       <c r="I10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="115"/>
-    </row>
-    <row r="11" spans="2:24" ht="86.25" x14ac:dyDescent="0.95">
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+    </row>
+    <row r="11" spans="2:24" ht="82.5">
       <c r="B11" s="22" t="s">
         <v>118</v>
       </c>
@@ -4365,240 +4365,240 @@
       <c r="I11" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
-      <c r="N11" s="115"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="115"/>
-      <c r="Q11" s="115"/>
-      <c r="R11" s="115"/>
-      <c r="S11" s="115"/>
-      <c r="T11" s="115"/>
-      <c r="U11" s="115"/>
-      <c r="V11" s="115"/>
-      <c r="W11" s="115"/>
-      <c r="X11" s="115"/>
-    </row>
-    <row r="12" spans="2:24" ht="31" x14ac:dyDescent="0.95">
-      <c r="B12" s="78" t="s">
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="72"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="72"/>
+    </row>
+    <row r="12" spans="2:24" ht="27">
+      <c r="B12" s="119" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="122" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="119" t="s">
+      <c r="E12" s="125" t="s">
         <v>144</v>
       </c>
-      <c r="F12" s="122" t="s">
+      <c r="F12" s="102" t="s">
         <v>299</v>
       </c>
-      <c r="G12" s="99" t="s">
+      <c r="G12" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="I12" s="105" t="s">
+      <c r="I12" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="94" t="s">
+      <c r="K12" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="L12" s="95" t="s">
+      <c r="L12" s="69" t="s">
         <v>343</v>
       </c>
-      <c r="M12" s="95" t="s">
+      <c r="M12" s="69" t="s">
         <v>351</v>
       </c>
-      <c r="N12" s="108" t="s">
+      <c r="N12" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="O12" s="95" t="s">
+      <c r="O12" s="69" t="s">
         <v>351</v>
       </c>
-      <c r="P12" s="108" t="s">
+      <c r="P12" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-      <c r="S12" s="115"/>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115"/>
-      <c r="V12" s="115"/>
-      <c r="W12" s="95" t="s">
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="69" t="s">
         <v>351</v>
       </c>
-      <c r="X12" s="108" t="s">
+      <c r="X12" s="70" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="2:24" ht="31" x14ac:dyDescent="0.95">
-      <c r="B13" s="79"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="120"/>
-      <c r="F13" s="123"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="106"/>
-      <c r="K13" s="94" t="s">
+    <row r="13" spans="2:24" ht="27">
+      <c r="B13" s="120"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="92"/>
+      <c r="K13" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="L13" s="95" t="s">
+      <c r="L13" s="69" t="s">
         <v>343</v>
       </c>
-      <c r="M13" s="95" t="s">
+      <c r="M13" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="N13" s="109" t="s">
+      <c r="N13" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="O13" s="95" t="s">
+      <c r="O13" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="P13" s="109" t="s">
+      <c r="P13" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="Q13" s="115"/>
-      <c r="R13" s="115"/>
-      <c r="S13" s="115"/>
-      <c r="T13" s="115"/>
-      <c r="U13" s="115"/>
-      <c r="V13" s="115"/>
-      <c r="W13" s="95" t="s">
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="X13" s="109" t="s">
+      <c r="X13" s="71" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="14" spans="2:24" ht="31" x14ac:dyDescent="0.95">
-      <c r="B14" s="79"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="120"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="106"/>
-      <c r="K14" s="94" t="s">
+    <row r="14" spans="2:24" ht="27">
+      <c r="B14" s="120"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="92"/>
+      <c r="K14" s="68" t="s">
         <v>345</v>
       </c>
-      <c r="L14" s="95" t="s">
+      <c r="L14" s="69" t="s">
         <v>346</v>
       </c>
-      <c r="M14" s="95" t="s">
+      <c r="M14" s="69" t="s">
         <v>355</v>
       </c>
-      <c r="N14" s="109" t="s">
+      <c r="N14" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="O14" s="95" t="s">
+      <c r="O14" s="69" t="s">
         <v>355</v>
       </c>
-      <c r="P14" s="109" t="s">
+      <c r="P14" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
-      <c r="U14" s="115"/>
-      <c r="V14" s="115"/>
-      <c r="W14" s="95" t="s">
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="69" t="s">
         <v>355</v>
       </c>
-      <c r="X14" s="109" t="s">
+      <c r="X14" s="71" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="15" spans="2:24" ht="31" x14ac:dyDescent="0.95">
-      <c r="B15" s="79"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="106"/>
-      <c r="K15" s="94" t="s">
+    <row r="15" spans="2:24" ht="27">
+      <c r="B15" s="120"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="123"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="92"/>
+      <c r="K15" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="L15" s="95" t="s">
+      <c r="L15" s="69" t="s">
         <v>348</v>
       </c>
-      <c r="M15" s="95" t="s">
+      <c r="M15" s="69" t="s">
         <v>357</v>
       </c>
-      <c r="N15" s="109" t="s">
+      <c r="N15" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="O15" s="95" t="s">
+      <c r="O15" s="69" t="s">
         <v>357</v>
       </c>
-      <c r="P15" s="109" t="s">
+      <c r="P15" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
-      <c r="U15" s="115"/>
-      <c r="V15" s="115"/>
-      <c r="W15" s="95" t="s">
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="69" t="s">
         <v>357</v>
       </c>
-      <c r="X15" s="109" t="s">
+      <c r="X15" s="71" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="16" spans="2:24" ht="31" x14ac:dyDescent="0.95">
-      <c r="B16" s="79"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="107"/>
-      <c r="K16" s="94" t="s">
+    <row r="16" spans="2:24" ht="27">
+      <c r="B16" s="120"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="93"/>
+      <c r="K16" s="68" t="s">
         <v>349</v>
       </c>
-      <c r="L16" s="95" t="s">
+      <c r="L16" s="69" t="s">
         <v>350</v>
       </c>
-      <c r="M16" s="95" t="s">
+      <c r="M16" s="69" t="s">
         <v>358</v>
       </c>
-      <c r="N16" s="109" t="s">
+      <c r="N16" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="O16" s="95" t="s">
+      <c r="O16" s="69" t="s">
         <v>358</v>
       </c>
-      <c r="P16" s="109" t="s">
+      <c r="P16" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
-      <c r="U16" s="115"/>
-      <c r="V16" s="115"/>
-      <c r="W16" s="95" t="s">
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="69" t="s">
         <v>358</v>
       </c>
-      <c r="X16" s="109" t="s">
+      <c r="X16" s="71" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="86.25" x14ac:dyDescent="0.95">
-      <c r="B17" s="79"/>
-      <c r="C17" s="76"/>
+    <row r="17" spans="2:24" ht="82.5">
+      <c r="B17" s="120"/>
+      <c r="C17" s="117"/>
       <c r="D17" s="12" t="s">
         <v>9</v>
       </c>
@@ -4617,24 +4617,24 @@
       <c r="I17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="115"/>
-      <c r="P17" s="115"/>
-      <c r="Q17" s="115"/>
-      <c r="R17" s="115"/>
-      <c r="S17" s="115"/>
-      <c r="T17" s="115"/>
-      <c r="U17" s="115"/>
-      <c r="V17" s="115"/>
-      <c r="W17" s="115"/>
-      <c r="X17" s="115"/>
-    </row>
-    <row r="18" spans="2:24" ht="34.5" x14ac:dyDescent="0.95">
-      <c r="B18" s="80"/>
-      <c r="C18" s="77"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="72"/>
+    </row>
+    <row r="18" spans="2:24" ht="33">
+      <c r="B18" s="121"/>
+      <c r="C18" s="118"/>
       <c r="D18" s="10" t="s">
         <v>18</v>
       </c>
@@ -4653,30 +4653,30 @@
       <c r="I18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115" t="s">
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72" t="s">
+        <v>381</v>
+      </c>
+      <c r="N18" s="72" t="s">
         <v>382</v>
       </c>
-      <c r="N18" s="115" t="s">
-        <v>383</v>
-      </c>
-      <c r="O18" s="115"/>
-      <c r="P18" s="115"/>
-      <c r="Q18" s="115"/>
-      <c r="R18" s="115"/>
-      <c r="S18" s="115"/>
-      <c r="T18" s="115"/>
-      <c r="U18" s="115"/>
-      <c r="V18" s="115"/>
-      <c r="W18" s="115"/>
-      <c r="X18" s="115"/>
-    </row>
-    <row r="19" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
-      <c r="B19" s="86" t="s">
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="72"/>
+    </row>
+    <row r="19" spans="2:24" ht="49.5">
+      <c r="B19" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="96" t="s">
         <v>145</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -4697,28 +4697,28 @@
       <c r="I19" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="94" t="s">
+      <c r="K19" s="68" t="s">
         <v>368</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="M19" s="115"/>
-      <c r="N19" s="115"/>
-      <c r="O19" s="115"/>
-      <c r="P19" s="115"/>
-      <c r="Q19" s="115"/>
-      <c r="R19" s="115"/>
-      <c r="S19" s="115"/>
-      <c r="T19" s="115"/>
-      <c r="U19" s="115"/>
-      <c r="V19" s="115"/>
-      <c r="W19" s="115"/>
-      <c r="X19" s="115"/>
-    </row>
-    <row r="20" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
-      <c r="B20" s="87"/>
-      <c r="C20" s="89"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="72"/>
+    </row>
+    <row r="20" spans="2:24" ht="49.5">
+      <c r="B20" s="95"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="12" t="s">
         <v>216</v>
       </c>
@@ -4737,26 +4737,26 @@
       <c r="I20" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
       <c r="M20" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="N20" s="72" t="s">
         <v>384</v>
       </c>
-      <c r="N20" s="115" t="s">
-        <v>385</v>
-      </c>
-      <c r="O20" s="115"/>
-      <c r="P20" s="115"/>
-      <c r="Q20" s="115"/>
-      <c r="R20" s="115"/>
-      <c r="S20" s="115"/>
-      <c r="T20" s="115"/>
-      <c r="U20" s="115"/>
-      <c r="V20" s="115"/>
-      <c r="W20" s="115"/>
-      <c r="X20" s="115"/>
-    </row>
-    <row r="21" spans="2:24" ht="86.25" x14ac:dyDescent="0.95">
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="72"/>
+    </row>
+    <row r="21" spans="2:24" ht="82.5">
       <c r="B21" s="22" t="s">
         <v>121</v>
       </c>
@@ -4777,22 +4777,22 @@
       </c>
       <c r="H21" s="21"/>
       <c r="I21" s="16"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
-      <c r="N21" s="115"/>
-      <c r="O21" s="115"/>
-      <c r="P21" s="115"/>
-      <c r="Q21" s="115"/>
-      <c r="R21" s="115"/>
-      <c r="S21" s="115"/>
-      <c r="T21" s="115"/>
-      <c r="U21" s="115"/>
-      <c r="V21" s="115"/>
-      <c r="W21" s="115"/>
-      <c r="X21" s="115"/>
-    </row>
-    <row r="22" spans="2:24" ht="34.5" x14ac:dyDescent="0.95">
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="72"/>
+    </row>
+    <row r="22" spans="2:24" ht="33">
       <c r="B22" s="22" t="s">
         <v>122</v>
       </c>
@@ -4817,28 +4817,28 @@
       <c r="I22" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="K22" s="115" t="s">
+      <c r="K22" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115" t="s">
+      <c r="L22" s="72"/>
+      <c r="M22" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="N22" s="115" t="s">
-        <v>385</v>
-      </c>
-      <c r="O22" s="115"/>
-      <c r="P22" s="115"/>
-      <c r="Q22" s="115"/>
-      <c r="R22" s="115"/>
-      <c r="S22" s="115"/>
-      <c r="T22" s="115"/>
-      <c r="U22" s="115"/>
-      <c r="V22" s="115"/>
-      <c r="W22" s="115"/>
-      <c r="X22" s="115"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.95">
+      <c r="N22" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="72"/>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23" s="38" t="s">
         <v>288</v>
       </c>
@@ -4849,22 +4849,22 @@
       <c r="G23" s="39"/>
       <c r="H23" s="39"/>
       <c r="I23" s="40"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
-      <c r="N23" s="115"/>
-      <c r="O23" s="115"/>
-      <c r="P23" s="115"/>
-      <c r="Q23" s="115"/>
-      <c r="R23" s="115"/>
-      <c r="S23" s="115"/>
-      <c r="T23" s="115"/>
-      <c r="U23" s="115"/>
-      <c r="V23" s="115"/>
-      <c r="W23" s="115"/>
-      <c r="X23" s="115"/>
-    </row>
-    <row r="24" spans="2:24" ht="34.5" x14ac:dyDescent="0.95">
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="72"/>
+    </row>
+    <row r="24" spans="2:24" ht="33">
       <c r="B24" s="22" t="s">
         <v>123</v>
       </c>
@@ -4889,28 +4889,28 @@
       <c r="I24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="K24" s="115" t="s">
+      <c r="K24" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115" t="s">
-        <v>386</v>
-      </c>
-      <c r="N24" s="115" t="s">
+      <c r="L24" s="72"/>
+      <c r="M24" s="72" t="s">
         <v>385</v>
       </c>
-      <c r="O24" s="115"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="115"/>
-      <c r="S24" s="115"/>
-      <c r="T24" s="115"/>
-      <c r="U24" s="115"/>
-      <c r="V24" s="115"/>
-      <c r="W24" s="115"/>
-      <c r="X24" s="115"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.95">
+      <c r="N24" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+    </row>
+    <row r="25" spans="2:24">
       <c r="B25" s="37" t="s">
         <v>124</v>
       </c>
@@ -4935,28 +4935,28 @@
       <c r="I25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="K25" s="115" t="s">
+      <c r="K25" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115" t="s">
-        <v>387</v>
-      </c>
-      <c r="N25" s="115" t="s">
-        <v>385</v>
-      </c>
-      <c r="O25" s="115"/>
-      <c r="P25" s="115"/>
-      <c r="Q25" s="115"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="115"/>
-      <c r="T25" s="115"/>
-      <c r="U25" s="115"/>
-      <c r="V25" s="115"/>
-      <c r="W25" s="115"/>
-      <c r="X25" s="115"/>
-    </row>
-    <row r="26" spans="2:24" ht="34.5" x14ac:dyDescent="0.95">
+      <c r="L25" s="72"/>
+      <c r="M25" s="72" t="s">
+        <v>386</v>
+      </c>
+      <c r="N25" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="72"/>
+    </row>
+    <row r="26" spans="2:24" ht="33">
       <c r="B26" s="37"/>
       <c r="C26" s="36"/>
       <c r="D26" s="12" t="s">
@@ -4977,28 +4977,28 @@
       <c r="I26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="K26" s="115" t="s">
+      <c r="K26" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115" t="s">
-        <v>388</v>
-      </c>
-      <c r="N26" s="115" t="s">
-        <v>385</v>
-      </c>
-      <c r="O26" s="115"/>
-      <c r="P26" s="115"/>
-      <c r="Q26" s="115"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="115"/>
-      <c r="T26" s="115"/>
-      <c r="U26" s="115"/>
-      <c r="V26" s="115"/>
-      <c r="W26" s="115"/>
-      <c r="X26" s="115"/>
-    </row>
-    <row r="27" spans="2:24" ht="34.5" x14ac:dyDescent="0.95">
+      <c r="L26" s="72"/>
+      <c r="M26" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="N26" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="72"/>
+    </row>
+    <row r="27" spans="2:24" ht="33">
       <c r="B27" s="22" t="s">
         <v>125</v>
       </c>
@@ -5023,28 +5023,28 @@
       <c r="I27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="K27" s="115" t="s">
+      <c r="K27" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115" t="s">
-        <v>389</v>
-      </c>
-      <c r="N27" s="115" t="s">
-        <v>385</v>
-      </c>
-      <c r="O27" s="115"/>
-      <c r="P27" s="115"/>
-      <c r="Q27" s="115"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="115"/>
-      <c r="T27" s="115"/>
-      <c r="U27" s="115"/>
-      <c r="V27" s="115"/>
-      <c r="W27" s="115"/>
-      <c r="X27" s="115"/>
-    </row>
-    <row r="28" spans="2:24" ht="34.5" x14ac:dyDescent="0.95">
+      <c r="L27" s="72"/>
+      <c r="M27" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="N27" s="72" t="s">
+        <v>384</v>
+      </c>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="72"/>
+    </row>
+    <row r="28" spans="2:24" ht="33">
       <c r="B28" s="22" t="s">
         <v>126</v>
       </c>
@@ -5065,22 +5065,22 @@
       </c>
       <c r="H28" s="21"/>
       <c r="I28" s="16"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="115"/>
-      <c r="Q28" s="115"/>
-      <c r="R28" s="115"/>
-      <c r="S28" s="115"/>
-      <c r="T28" s="115"/>
-      <c r="U28" s="115"/>
-      <c r="V28" s="115"/>
-      <c r="W28" s="115"/>
-      <c r="X28" s="115"/>
-    </row>
-    <row r="29" spans="2:24" ht="34.5" x14ac:dyDescent="0.95">
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="72"/>
+    </row>
+    <row r="29" spans="2:24" ht="33">
       <c r="B29" s="22" t="s">
         <v>127</v>
       </c>
@@ -5101,22 +5101,22 @@
       </c>
       <c r="H29" s="21"/>
       <c r="I29" s="16"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="115"/>
-      <c r="N29" s="115"/>
-      <c r="O29" s="115"/>
-      <c r="P29" s="115"/>
-      <c r="Q29" s="115"/>
-      <c r="R29" s="115"/>
-      <c r="S29" s="115"/>
-      <c r="T29" s="115"/>
-      <c r="U29" s="115"/>
-      <c r="V29" s="115"/>
-      <c r="W29" s="115"/>
-      <c r="X29" s="115"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.95">
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="72"/>
+    </row>
+    <row r="30" spans="2:24">
       <c r="B30" s="38" t="s">
         <v>287</v>
       </c>
@@ -5127,26 +5127,26 @@
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
       <c r="I30" s="40"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
-      <c r="N30" s="115"/>
-      <c r="O30" s="115"/>
-      <c r="P30" s="115"/>
-      <c r="Q30" s="115"/>
-      <c r="R30" s="115"/>
-      <c r="S30" s="115"/>
-      <c r="T30" s="115"/>
-      <c r="U30" s="115"/>
-      <c r="V30" s="115"/>
-      <c r="W30" s="115"/>
-      <c r="X30" s="115"/>
-    </row>
-    <row r="31" spans="2:24" ht="34.5" x14ac:dyDescent="0.95">
-      <c r="B31" s="78" t="s">
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="72"/>
+    </row>
+    <row r="31" spans="2:24" ht="33">
+      <c r="B31" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="C31" s="75" t="s">
+      <c r="C31" s="116" t="s">
         <v>153</v>
       </c>
       <c r="D31" s="12" t="s">
@@ -5156,7 +5156,7 @@
         <v>153</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>277</v>
@@ -5167,28 +5167,28 @@
       <c r="I31" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115" t="s">
-        <v>391</v>
-      </c>
-      <c r="N31" s="115" t="s">
-        <v>383</v>
-      </c>
-      <c r="O31" s="115"/>
-      <c r="P31" s="115"/>
-      <c r="Q31" s="115"/>
-      <c r="R31" s="115"/>
-      <c r="S31" s="115"/>
-      <c r="T31" s="115"/>
-      <c r="U31" s="115"/>
-      <c r="V31" s="115"/>
-      <c r="W31" s="115"/>
-      <c r="X31" s="115"/>
-    </row>
-    <row r="32" spans="2:24" ht="69" x14ac:dyDescent="0.95">
-      <c r="B32" s="80"/>
-      <c r="C32" s="77"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72" t="s">
+        <v>390</v>
+      </c>
+      <c r="N31" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="72"/>
+    </row>
+    <row r="32" spans="2:24" ht="82.5">
+      <c r="B32" s="121"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="12" t="s">
         <v>24</v>
       </c>
@@ -5207,106 +5207,106 @@
       <c r="I32" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
       <c r="M32" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="N32" s="115" t="s">
-        <v>383</v>
-      </c>
-      <c r="O32" s="115"/>
-      <c r="P32" s="115"/>
-      <c r="Q32" s="115"/>
-      <c r="R32" s="115"/>
-      <c r="S32" s="115"/>
-      <c r="T32" s="115"/>
-      <c r="U32" s="115"/>
-      <c r="V32" s="115"/>
-      <c r="W32" s="115"/>
-      <c r="X32" s="115"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.95">
-      <c r="B33" s="86" t="s">
+        <v>393</v>
+      </c>
+      <c r="N32" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="72"/>
+    </row>
+    <row r="33" spans="2:24">
+      <c r="B33" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="96" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="E33" s="127" t="s">
+      <c r="E33" s="100" t="s">
         <v>154</v>
       </c>
-      <c r="F33" s="122" t="s">
+      <c r="F33" s="102" t="s">
         <v>313</v>
       </c>
-      <c r="G33" s="112" t="s">
+      <c r="G33" s="104" t="s">
         <v>274</v>
       </c>
-      <c r="H33" s="102" t="s">
+      <c r="H33" s="88" t="s">
         <v>251</v>
       </c>
-      <c r="I33" s="105" t="s">
+      <c r="I33" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="K33" s="115" t="s">
+      <c r="K33" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115" t="s">
+      <c r="L33" s="72"/>
+      <c r="M33" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="N33" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="N33" s="115" t="s">
-        <v>393</v>
-      </c>
-      <c r="O33" s="115"/>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115"/>
-      <c r="R33" s="115"/>
-      <c r="S33" s="115"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115"/>
-      <c r="X33" s="115"/>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.95">
-      <c r="B34" s="87"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="107"/>
-      <c r="K34" s="115" t="s">
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="72"/>
+    </row>
+    <row r="34" spans="2:24">
+      <c r="B34" s="95"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="99"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="93"/>
+      <c r="K34" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115" t="s">
+      <c r="L34" s="72"/>
+      <c r="M34" s="72" t="s">
+        <v>391</v>
+      </c>
+      <c r="N34" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="N34" s="115" t="s">
-        <v>393</v>
-      </c>
-      <c r="O34" s="115"/>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="115"/>
-      <c r="R34" s="115"/>
-      <c r="S34" s="115"/>
-      <c r="T34" s="115"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="115"/>
-      <c r="W34" s="115"/>
-      <c r="X34" s="115"/>
-    </row>
-    <row r="35" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
-      <c r="B35" s="78" t="s">
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="72"/>
+    </row>
+    <row r="35" spans="2:24" ht="49.5">
+      <c r="B35" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="C35" s="75" t="s">
+      <c r="C35" s="116" t="s">
         <v>155</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -5327,24 +5327,24 @@
       <c r="I35" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
-      <c r="N35" s="115"/>
-      <c r="O35" s="115"/>
-      <c r="P35" s="115"/>
-      <c r="Q35" s="115"/>
-      <c r="R35" s="115"/>
-      <c r="S35" s="115"/>
-      <c r="T35" s="115"/>
-      <c r="U35" s="115"/>
-      <c r="V35" s="115"/>
-      <c r="W35" s="115"/>
-      <c r="X35" s="115"/>
-    </row>
-    <row r="36" spans="2:24" ht="69" x14ac:dyDescent="0.95">
-      <c r="B36" s="79"/>
-      <c r="C36" s="76"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="72"/>
+    </row>
+    <row r="36" spans="2:24" ht="66">
+      <c r="B36" s="120"/>
+      <c r="C36" s="117"/>
       <c r="D36" s="12" t="s">
         <v>27</v>
       </c>
@@ -5363,24 +5363,24 @@
       <c r="I36" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="115"/>
-      <c r="P36" s="115"/>
-      <c r="Q36" s="115"/>
-      <c r="R36" s="115"/>
-      <c r="S36" s="115"/>
-      <c r="T36" s="115"/>
-      <c r="U36" s="115"/>
-      <c r="V36" s="115"/>
-      <c r="W36" s="115"/>
-      <c r="X36" s="115"/>
-    </row>
-    <row r="37" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
-      <c r="B37" s="79"/>
-      <c r="C37" s="76"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+    </row>
+    <row r="37" spans="2:24" ht="49.5">
+      <c r="B37" s="120"/>
+      <c r="C37" s="117"/>
       <c r="D37" s="12" t="s">
         <v>28</v>
       </c>
@@ -5399,24 +5399,24 @@
       <c r="I37" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
-      <c r="N37" s="115"/>
-      <c r="O37" s="115"/>
-      <c r="P37" s="115"/>
-      <c r="Q37" s="115"/>
-      <c r="R37" s="115"/>
-      <c r="S37" s="115"/>
-      <c r="T37" s="115"/>
-      <c r="U37" s="115"/>
-      <c r="V37" s="115"/>
-      <c r="W37" s="115"/>
-      <c r="X37" s="115"/>
-    </row>
-    <row r="38" spans="2:24" ht="86.25" x14ac:dyDescent="0.95">
-      <c r="B38" s="79"/>
-      <c r="C38" s="76"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="72"/>
+    </row>
+    <row r="38" spans="2:24" ht="82.5">
+      <c r="B38" s="120"/>
+      <c r="C38" s="117"/>
       <c r="D38" s="12" t="s">
         <v>30</v>
       </c>
@@ -5435,24 +5435,24 @@
       <c r="I38" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
-      <c r="N38" s="115"/>
-      <c r="O38" s="115"/>
-      <c r="P38" s="115"/>
-      <c r="Q38" s="115"/>
-      <c r="R38" s="115"/>
-      <c r="S38" s="115"/>
-      <c r="T38" s="115"/>
-      <c r="U38" s="115"/>
-      <c r="V38" s="115"/>
-      <c r="W38" s="115"/>
-      <c r="X38" s="115"/>
-    </row>
-    <row r="39" spans="2:24" ht="86.25" x14ac:dyDescent="0.95">
-      <c r="B39" s="79"/>
-      <c r="C39" s="76"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="72"/>
+    </row>
+    <row r="39" spans="2:24" ht="82.5">
+      <c r="B39" s="120"/>
+      <c r="C39" s="117"/>
       <c r="D39" s="12" t="s">
         <v>32</v>
       </c>
@@ -5471,24 +5471,24 @@
       <c r="I39" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="115"/>
-      <c r="N39" s="115"/>
-      <c r="O39" s="115"/>
-      <c r="P39" s="115"/>
-      <c r="Q39" s="115"/>
-      <c r="R39" s="115"/>
-      <c r="S39" s="115"/>
-      <c r="T39" s="115"/>
-      <c r="U39" s="115"/>
-      <c r="V39" s="115"/>
-      <c r="W39" s="115"/>
-      <c r="X39" s="115"/>
-    </row>
-    <row r="40" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
-      <c r="B40" s="80"/>
-      <c r="C40" s="77"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="72"/>
+      <c r="P39" s="72"/>
+      <c r="Q39" s="72"/>
+      <c r="R39" s="72"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="72"/>
+    </row>
+    <row r="40" spans="2:24" ht="49.5">
+      <c r="B40" s="121"/>
+      <c r="C40" s="118"/>
       <c r="D40" s="10" t="s">
         <v>10</v>
       </c>
@@ -5507,26 +5507,26 @@
       <c r="I40" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
-      <c r="N40" s="115"/>
-      <c r="O40" s="115"/>
-      <c r="P40" s="115"/>
-      <c r="Q40" s="115"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="115"/>
-      <c r="T40" s="115"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="115"/>
-      <c r="W40" s="115"/>
-      <c r="X40" s="115"/>
-    </row>
-    <row r="41" spans="2:24" ht="69" x14ac:dyDescent="0.95">
-      <c r="B41" s="78" t="s">
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="72"/>
+      <c r="N40" s="72"/>
+      <c r="O40" s="72"/>
+      <c r="P40" s="72"/>
+      <c r="Q40" s="72"/>
+      <c r="R40" s="72"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="72"/>
+    </row>
+    <row r="41" spans="2:24" ht="66">
+      <c r="B41" s="119" t="s">
         <v>131</v>
       </c>
-      <c r="C41" s="75" t="s">
+      <c r="C41" s="116" t="s">
         <v>156</v>
       </c>
       <c r="D41" s="12" t="s">
@@ -5547,24 +5547,24 @@
       <c r="I41" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="K41" s="115"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="115"/>
-      <c r="N41" s="115"/>
-      <c r="O41" s="115"/>
-      <c r="P41" s="115"/>
-      <c r="Q41" s="115"/>
-      <c r="R41" s="115"/>
-      <c r="S41" s="115"/>
-      <c r="T41" s="115"/>
-      <c r="U41" s="115"/>
-      <c r="V41" s="115"/>
-      <c r="W41" s="115"/>
-      <c r="X41" s="115"/>
-    </row>
-    <row r="42" spans="2:24" ht="69" x14ac:dyDescent="0.95">
-      <c r="B42" s="79"/>
-      <c r="C42" s="76"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="72"/>
+      <c r="N41" s="72"/>
+      <c r="O41" s="72"/>
+      <c r="P41" s="72"/>
+      <c r="Q41" s="72"/>
+      <c r="R41" s="72"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="72"/>
+    </row>
+    <row r="42" spans="2:24" ht="66">
+      <c r="B42" s="120"/>
+      <c r="C42" s="117"/>
       <c r="D42" s="12" t="s">
         <v>29</v>
       </c>
@@ -5583,24 +5583,24 @@
       <c r="I42" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="115"/>
-      <c r="N42" s="115"/>
-      <c r="O42" s="115"/>
-      <c r="P42" s="115"/>
-      <c r="Q42" s="115"/>
-      <c r="R42" s="115"/>
-      <c r="S42" s="115"/>
-      <c r="T42" s="115"/>
-      <c r="U42" s="115"/>
-      <c r="V42" s="115"/>
-      <c r="W42" s="115"/>
-      <c r="X42" s="115"/>
-    </row>
-    <row r="43" spans="2:24" ht="34.5" x14ac:dyDescent="0.95">
-      <c r="B43" s="80"/>
-      <c r="C43" s="77"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="72"/>
+      <c r="N42" s="72"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="72"/>
+      <c r="R42" s="72"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="72"/>
+    </row>
+    <row r="43" spans="2:24" ht="33">
+      <c r="B43" s="121"/>
+      <c r="C43" s="118"/>
       <c r="D43" s="12" t="s">
         <v>31</v>
       </c>
@@ -5619,22 +5619,22 @@
       <c r="I43" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="115"/>
-      <c r="N43" s="115"/>
-      <c r="O43" s="115"/>
-      <c r="P43" s="115"/>
-      <c r="Q43" s="115"/>
-      <c r="R43" s="115"/>
-      <c r="S43" s="115"/>
-      <c r="T43" s="115"/>
-      <c r="U43" s="115"/>
-      <c r="V43" s="115"/>
-      <c r="W43" s="115"/>
-      <c r="X43" s="115"/>
-    </row>
-    <row r="44" spans="2:24" ht="69" x14ac:dyDescent="0.95">
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="72"/>
+      <c r="N43" s="72"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="72"/>
+      <c r="R43" s="72"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="72"/>
+      <c r="X43" s="72"/>
+    </row>
+    <row r="44" spans="2:24" ht="66">
       <c r="B44" s="22" t="s">
         <v>132</v>
       </c>
@@ -5659,22 +5659,22 @@
       <c r="I44" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
-      <c r="N44" s="115"/>
-      <c r="O44" s="115"/>
-      <c r="P44" s="115"/>
-      <c r="Q44" s="115"/>
-      <c r="R44" s="115"/>
-      <c r="S44" s="115"/>
-      <c r="T44" s="115"/>
-      <c r="U44" s="115"/>
-      <c r="V44" s="115"/>
-      <c r="W44" s="115"/>
-      <c r="X44" s="115"/>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.95">
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="72"/>
+      <c r="N44" s="72"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="72"/>
+      <c r="R44" s="72"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="72"/>
+    </row>
+    <row r="45" spans="2:24">
       <c r="B45" s="38" t="s">
         <v>290</v>
       </c>
@@ -5685,22 +5685,22 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
       <c r="I45" s="40"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="115"/>
-      <c r="N45" s="115"/>
-      <c r="O45" s="115"/>
-      <c r="P45" s="115"/>
-      <c r="Q45" s="115"/>
-      <c r="R45" s="115"/>
-      <c r="S45" s="115"/>
-      <c r="T45" s="115"/>
-      <c r="U45" s="115"/>
-      <c r="V45" s="115"/>
-      <c r="W45" s="115"/>
-      <c r="X45" s="115"/>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.95">
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="72"/>
+      <c r="N45" s="72"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="72"/>
+      <c r="X45" s="72"/>
+    </row>
+    <row r="46" spans="2:24">
       <c r="B46" s="22" t="s">
         <v>133</v>
       </c>
@@ -5725,22 +5725,22 @@
       <c r="I46" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="115"/>
-      <c r="N46" s="115"/>
-      <c r="O46" s="115"/>
-      <c r="P46" s="115"/>
-      <c r="Q46" s="115"/>
-      <c r="R46" s="115"/>
-      <c r="S46" s="115"/>
-      <c r="T46" s="115"/>
-      <c r="U46" s="115"/>
-      <c r="V46" s="115"/>
-      <c r="W46" s="115"/>
-      <c r="X46" s="115"/>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.95">
+      <c r="K46" s="72"/>
+      <c r="L46" s="72"/>
+      <c r="M46" s="72"/>
+      <c r="N46" s="72"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="72"/>
+      <c r="R46" s="72"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="72"/>
+    </row>
+    <row r="47" spans="2:24">
       <c r="B47" s="50" t="s">
         <v>134</v>
       </c>
@@ -5765,22 +5765,22 @@
       <c r="I47" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="115"/>
-      <c r="O47" s="115"/>
-      <c r="P47" s="115"/>
-      <c r="Q47" s="115"/>
-      <c r="R47" s="115"/>
-      <c r="S47" s="115"/>
-      <c r="T47" s="115"/>
-      <c r="U47" s="115"/>
-      <c r="V47" s="115"/>
-      <c r="W47" s="115"/>
-      <c r="X47" s="115"/>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.95">
+      <c r="K47" s="72"/>
+      <c r="L47" s="72"/>
+      <c r="M47" s="72"/>
+      <c r="N47" s="72"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="72"/>
+      <c r="R47" s="72"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="72"/>
+    </row>
+    <row r="48" spans="2:24">
       <c r="B48" s="50" t="s">
         <v>135</v>
       </c>
@@ -5805,26 +5805,26 @@
       <c r="I48" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="K48" s="115" t="s">
+      <c r="K48" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="L48" s="115"/>
-      <c r="M48" s="115" t="s">
-        <v>381</v>
-      </c>
-      <c r="N48" s="115"/>
-      <c r="O48" s="115"/>
-      <c r="P48" s="115"/>
-      <c r="Q48" s="115"/>
-      <c r="R48" s="115"/>
-      <c r="S48" s="115"/>
-      <c r="T48" s="115"/>
-      <c r="U48" s="115"/>
-      <c r="V48" s="115"/>
-      <c r="W48" s="115"/>
-      <c r="X48" s="115"/>
-    </row>
-    <row r="49" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
+      <c r="L48" s="72"/>
+      <c r="M48" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="N48" s="72"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="72"/>
+      <c r="R48" s="72"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="72"/>
+    </row>
+    <row r="49" spans="2:24" ht="49.5">
       <c r="B49" s="50" t="s">
         <v>136</v>
       </c>
@@ -5849,26 +5849,26 @@
       <c r="I49" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="K49" s="115"/>
-      <c r="L49" s="115"/>
-      <c r="M49" s="115"/>
-      <c r="N49" s="115"/>
-      <c r="O49" s="115"/>
-      <c r="P49" s="115"/>
-      <c r="Q49" s="115"/>
-      <c r="R49" s="115"/>
-      <c r="S49" s="115"/>
-      <c r="T49" s="115"/>
-      <c r="U49" s="115"/>
-      <c r="V49" s="115"/>
-      <c r="W49" s="115"/>
-      <c r="X49" s="115"/>
-    </row>
-    <row r="50" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
-      <c r="B50" s="78" t="s">
+      <c r="K49" s="72"/>
+      <c r="L49" s="72"/>
+      <c r="M49" s="72"/>
+      <c r="N49" s="72"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="72"/>
+      <c r="R49" s="72"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="72"/>
+      <c r="W49" s="72"/>
+      <c r="X49" s="72"/>
+    </row>
+    <row r="50" spans="2:24" ht="49.5">
+      <c r="B50" s="119" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="75" t="s">
+      <c r="C50" s="116" t="s">
         <v>162</v>
       </c>
       <c r="D50" s="10" t="s">
@@ -5889,24 +5889,24 @@
       <c r="I50" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="K50" s="115"/>
-      <c r="L50" s="115"/>
-      <c r="M50" s="115"/>
-      <c r="N50" s="115"/>
-      <c r="O50" s="115"/>
-      <c r="P50" s="115"/>
-      <c r="Q50" s="115"/>
-      <c r="R50" s="115"/>
-      <c r="S50" s="115"/>
-      <c r="T50" s="115"/>
-      <c r="U50" s="115"/>
-      <c r="V50" s="115"/>
-      <c r="W50" s="115"/>
-      <c r="X50" s="115"/>
-    </row>
-    <row r="51" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
-      <c r="B51" s="79"/>
-      <c r="C51" s="76"/>
+      <c r="K50" s="72"/>
+      <c r="L50" s="72"/>
+      <c r="M50" s="72"/>
+      <c r="N50" s="72"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="72"/>
+      <c r="R50" s="72"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="72"/>
+      <c r="V50" s="72"/>
+      <c r="W50" s="72"/>
+      <c r="X50" s="72"/>
+    </row>
+    <row r="51" spans="2:24" ht="49.5">
+      <c r="B51" s="120"/>
+      <c r="C51" s="117"/>
       <c r="D51" s="10" t="s">
         <v>34</v>
       </c>
@@ -5925,24 +5925,24 @@
       <c r="I51" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="K51" s="115"/>
-      <c r="L51" s="115"/>
-      <c r="M51" s="115"/>
-      <c r="N51" s="115"/>
-      <c r="O51" s="115"/>
-      <c r="P51" s="115"/>
-      <c r="Q51" s="115"/>
-      <c r="R51" s="115"/>
-      <c r="S51" s="115"/>
-      <c r="T51" s="115"/>
-      <c r="U51" s="115"/>
-      <c r="V51" s="115"/>
-      <c r="W51" s="115"/>
-      <c r="X51" s="115"/>
-    </row>
-    <row r="52" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
-      <c r="B52" s="79"/>
-      <c r="C52" s="76"/>
+      <c r="K51" s="72"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="72"/>
+      <c r="R51" s="72"/>
+      <c r="S51" s="72"/>
+      <c r="T51" s="72"/>
+      <c r="U51" s="72"/>
+      <c r="V51" s="72"/>
+      <c r="W51" s="72"/>
+      <c r="X51" s="72"/>
+    </row>
+    <row r="52" spans="2:24" ht="49.5">
+      <c r="B52" s="120"/>
+      <c r="C52" s="117"/>
       <c r="D52" s="10" t="s">
         <v>35</v>
       </c>
@@ -5961,26 +5961,26 @@
       <c r="I52" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="115"/>
-      <c r="L52" s="115"/>
+      <c r="K52" s="72"/>
+      <c r="L52" s="72"/>
       <c r="M52" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="N52" s="115"/>
-      <c r="O52" s="115"/>
-      <c r="P52" s="115"/>
-      <c r="Q52" s="115"/>
-      <c r="R52" s="115"/>
-      <c r="S52" s="115"/>
-      <c r="T52" s="115"/>
-      <c r="U52" s="115"/>
-      <c r="V52" s="115"/>
-      <c r="W52" s="115"/>
-      <c r="X52" s="115"/>
-    </row>
-    <row r="53" spans="2:24" ht="51.75" x14ac:dyDescent="0.95">
-      <c r="B53" s="80"/>
-      <c r="C53" s="77"/>
+        <v>379</v>
+      </c>
+      <c r="N52" s="72"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="72"/>
+      <c r="R52" s="72"/>
+      <c r="S52" s="72"/>
+      <c r="T52" s="72"/>
+      <c r="U52" s="72"/>
+      <c r="V52" s="72"/>
+      <c r="W52" s="72"/>
+      <c r="X52" s="72"/>
+    </row>
+    <row r="53" spans="2:24" ht="49.5">
+      <c r="B53" s="121"/>
+      <c r="C53" s="118"/>
       <c r="D53" s="10" t="s">
         <v>36</v>
       </c>
@@ -5999,22 +5999,22 @@
       <c r="I53" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K53" s="115"/>
-      <c r="L53" s="115"/>
-      <c r="M53" s="115"/>
-      <c r="N53" s="115"/>
-      <c r="O53" s="115"/>
-      <c r="P53" s="115"/>
-      <c r="Q53" s="115"/>
-      <c r="R53" s="115"/>
-      <c r="S53" s="115"/>
-      <c r="T53" s="115"/>
-      <c r="U53" s="115"/>
-      <c r="V53" s="115"/>
-      <c r="W53" s="115"/>
-      <c r="X53" s="115"/>
-    </row>
-    <row r="54" spans="2:24" ht="52.5" thickBot="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="K53" s="72"/>
+      <c r="L53" s="72"/>
+      <c r="M53" s="72"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="72"/>
+      <c r="R53" s="72"/>
+      <c r="S53" s="72"/>
+      <c r="T53" s="72"/>
+      <c r="U53" s="72"/>
+      <c r="V53" s="72"/>
+      <c r="W53" s="72"/>
+      <c r="X53" s="72"/>
+    </row>
+    <row r="54" spans="2:24" ht="50.25" thickBot="1">
       <c r="B54" s="31" t="s">
         <v>138</v>
       </c>
@@ -6039,23 +6039,56 @@
       <c r="I54" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="K54" s="115"/>
-      <c r="L54" s="115"/>
-      <c r="M54" s="115"/>
-      <c r="N54" s="115"/>
-      <c r="O54" s="115"/>
-      <c r="P54" s="115"/>
-      <c r="Q54" s="115"/>
-      <c r="R54" s="115"/>
-      <c r="S54" s="115"/>
-      <c r="T54" s="115"/>
-      <c r="U54" s="115"/>
-      <c r="V54" s="115"/>
-      <c r="W54" s="115"/>
-      <c r="X54" s="115"/>
+      <c r="K54" s="72"/>
+      <c r="L54" s="72"/>
+      <c r="M54" s="72"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="72"/>
+      <c r="R54" s="72"/>
+      <c r="S54" s="72"/>
+      <c r="T54" s="72"/>
+      <c r="U54" s="72"/>
+      <c r="V54" s="72"/>
+      <c r="W54" s="72"/>
+      <c r="X54" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="C35:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="C12:C18"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="H12:H16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="M2:N2"/>
@@ -6067,43 +6100,10 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="H12:H16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U4:V4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="C12:C18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="F12:F16"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="C35:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="B41:B43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
